--- a/doc/Sprints/Backlog 2.xlsx
+++ b/doc/Sprints/Backlog 2.xlsx
@@ -1165,14 +1165,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2093,7 +2093,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
